--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员积分.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员积分.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="421">
   <si>
     <t xml:space="preserve">会员姓名</t>
   </si>
@@ -29,25 +29,139 @@
     <t xml:space="preserve">积分</t>
   </si>
   <si>
+    <t xml:space="preserve">胡于梅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零售客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡于梅(511622103044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18282659081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华蓥市福之源超市(511681102303)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18280963079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一生有你</t>
+  </si>
+  <si>
+    <t xml:space="preserve">段全珍(511622103918)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13678264302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0C__C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张晓梅(511602107406)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882610513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18224363291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代 燕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17713874203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张伟13659090023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13659090023</t>
+  </si>
+  <si>
     <t xml:space="preserve">清荷</t>
   </si>
   <si>
-    <t xml:space="preserve">零售客户</t>
-  </si>
-  <si>
     <t xml:space="preserve">张宗平(511602106170)</t>
   </si>
   <si>
     <t xml:space="preserve">13518395361</t>
   </si>
   <si>
-    <t xml:space="preserve">0C__C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张晓梅(511602107406)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13882610513</t>
+    <t xml:space="preserve">武王</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18682668252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓦然回首</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消关注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15182653063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨江涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18782620198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无趣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17781737705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恰个柠檬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17755240252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熟悉的陌生人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18782613715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汇集副食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汇集副食(511681101839)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08264823000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y杨琴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欣欣超市(511622104265)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18980322907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张玺华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张玺华(511681100496)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08264835241</t>
   </si>
   <si>
     <t xml:space="preserve">新用户</t>
@@ -65,9 +179,6 @@
     <t xml:space="preserve">蒋星新</t>
   </si>
   <si>
-    <t xml:space="preserve">蒋星新(170157)</t>
-  </si>
-  <si>
     <t xml:space="preserve">18982649900</t>
   </si>
   <si>
@@ -77,6 +188,51 @@
     <t xml:space="preserve">15348281777</t>
   </si>
   <si>
+    <t xml:space="preserve">建国13541992786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王清华(511602104937)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13541992786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李涛18090285152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18090285152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五爷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18382611711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17761157790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裕丰村</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15182690215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helloair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18682619060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15196528780</t>
+  </si>
+  <si>
     <t xml:space="preserve">随风</t>
   </si>
   <si>
@@ -86,12 +242,15 @@
     <t xml:space="preserve">18980338988</t>
   </si>
   <si>
+    <t xml:space="preserve">华盟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17764959188</t>
+  </si>
+  <si>
     <t xml:space="preserve">苏@$</t>
   </si>
   <si>
-    <t xml:space="preserve">消费者</t>
-  </si>
-  <si>
     <t xml:space="preserve">13281773716</t>
   </si>
   <si>
@@ -110,6 +269,15 @@
     <t xml:space="preserve">17508222292</t>
   </si>
   <si>
+    <t xml:space="preserve">石头</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安区华亿购物超市(511602107781)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17347707757</t>
+  </si>
+  <si>
     <t xml:space="preserve">赵代英</t>
   </si>
   <si>
@@ -117,6 +285,996 @@
   </si>
   <si>
     <t xml:space="preserve">15983468799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口渴才接吻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区艾加便利店(511602108038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161165990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">酒润金叶，烟酒飘香。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒋大平(511602103938)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13608276888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燕子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周廷淑(511602103190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13388157779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">庄秋林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姚勇(511621104952)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18280967350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡德光(511602104902)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15228512406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晓凤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李小凤(511602106853)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18227994056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">。小李</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李黎霞(511602106528)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18908285829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">千寻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区利佳超市(511602108039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15279820040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15284912802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区金辰超市(511602107765)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982667846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安娜姐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区红海超市(511602107802)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15928277786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐春波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒋君龙(511602106636)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15982633688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沉默</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗叶刚(511602100646)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982642946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATJCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区谭记超市(511602107959)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18381138799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兰小妮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区乐滋超市(511602107977)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18382690311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云菊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨于芬(511602106139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13547518644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珍惜自己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982675610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳志怀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李君容(511681100275)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15082673613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵光林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15908335186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡然若水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">付秀山(511602101671)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15982635188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利民副食批发部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨天碧(511681100819)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15348282861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒋海燕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廖琼辉(511602106721)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18080292918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回忆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔡小平(511602107314)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18381121713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15700538883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林家娜幺妹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15928269176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢明林(171222)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18608269527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13198115201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du.茂福</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聂贤芬(511602101447)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18980329094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小叶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13255125357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赖念17345364016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赖念(511681101914)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982654072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海玲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周海玲(511681100563)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15808267378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流年似水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982639397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余善民</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余善民(170046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13908280960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芳芳副食-杨生平15378583686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15378583686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金冠炒货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邻水县土冠炒货店(511623105347)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982642294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨曲子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18181853492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渔夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨琼华(511621102270)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13548493181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮蛋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18228726100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">易风</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882676539</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 🇩🇨 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">杜聪(511602107457)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13541888451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九月九的酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982654705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好运来名烟名酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗翠英(511623104742)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18086973776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩兴贵柠鸿副食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩兴贵(511681100999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13547517737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✨希二喵🌻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15202884075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微软﴾Dc﴿ᙚ💟工作室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前锋区宏欣超市(511603101010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17778581683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金中才一尹兴红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尹兴红(511603100426)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882656295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15680321732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珍惜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李国华(511622101576)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18728633006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贾旭东(171220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13698392532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹雪梅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18728697098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君君</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李志君(511622103994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13408262249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狠心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李晓平(511622102826)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15982639733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘国勋(511622101172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15082670587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张浩翔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武胜县板桥代孝副食店(511622103073)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982626329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯廷芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘远中(511622102960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882671395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乡村超市(511622104045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15348287308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佳韵总代雪梅崽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任雪梅(511622103463)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18090523750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">含香碧玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭玉兰(511622103371)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982682763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闲云野鹤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗明(511622101168)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13548481968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任代玉(511622101225)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13696181438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武胜县金光板桥谭文副食店(511622103172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13438626198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡萝卜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18728653390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曾晓平(511621103694)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18090299816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(^_^)梦醒时分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡红英(511602107453)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18782636908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">笑看人生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳池县兴兴副食店(511621104973)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15982625769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豪哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳池宜佳超市经营部(511621105543)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15182001891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x辛勤者终有回报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13330629603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝雨（渝邻石材经营部）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐必艳(511623103838)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18181792207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李老师四川邻水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邻水县尚好超市(511623104325)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982611890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈娇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c广安城区_陈娇(170367)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882676506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁思维(511602107552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13541866471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商人最笨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭书云(511622102823)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18382660208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（abc）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳池县兴源副食批零部(511621104387)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18980332593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘理琼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈天才(511623101864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982633611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18008266669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">风吹落了记忆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈东(511622100511)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982626320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王继宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15892359400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨旭(170034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐方秋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐方秋(170682)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161133591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋鹏程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋鹏程(170648)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰霜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13508281796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天生狼 族</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江东_樊小东(170124)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18908283318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勿忘初心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n坪滩_万添意(171025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靳乔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">靳乔(171092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982605533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男得糊涂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">许健之(170641)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王易(171046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18782606360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何桂花(511602107724)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18181815817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘芳(170055)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13568388786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18782629660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_黄子凌(171202)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18728697170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冯艳霞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冯艳霞(170014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14708228961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴金倍(171169)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15228531393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文刂青争</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_刘静(171161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15683895906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余善林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李友荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c九龙_王洋(171158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15882579881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晒月亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n前锋_唐利平(171048)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15884900272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">093 肖代明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13659090618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亦凡亦不凡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982015590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周小瑗(171043)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvey🗿Dent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘昶(171204)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18682686018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">春春</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭徐刚(511622101169)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18382659958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_卢艳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_卢艳(171126)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n九龙_张智(171035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13541990666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青山绿水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_王建军(11511612102)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982652161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王国定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王国定(170023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13608278306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z先森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胥舟(170077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18682677771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安市广安区丽丽万家超市(511602107909)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15228511751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐勇(170094)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13118233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可靠树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18980333660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王欢(170092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982677707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眼镜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姜远西(170025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_李绍玮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_李绍玮(1151160100170660)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15082668273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙丹(170032)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18398596599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲曲儿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_谢曲(170592)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982662100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可可豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任洁(170018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13350225567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c华蓥_邓功强(170650)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18180267666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乐曲(170084)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18982698066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何绍琳(511621101432)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15282684608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161141162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西槽_刘衡(171057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18908287776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没事忙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n江西_张颂明(170415)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13882687799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尹晓红(170035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13982650788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">～覭覭～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18090502999</t>
   </si>
 </sst>
 </file>
@@ -206,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3080</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="3">
@@ -223,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2863</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="4">
@@ -231,50 +1389,50 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4">
-        <v>215</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5">
-        <v>153</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="7">
@@ -282,83 +1440,2650 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>26</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>10</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>10</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="E10">
-        <v>10</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E11">
+      <c r="E12">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" t="s">
+        <v>235</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" t="s">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" t="s">
+        <v>276</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>278</v>
+      </c>
+      <c r="D105" t="s">
+        <v>279</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>281</v>
+      </c>
+      <c r="D106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>286</v>
+      </c>
+      <c r="D108" t="s">
+        <v>287</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" t="s">
+        <v>289</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>299</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" t="s">
+        <v>304</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" t="s">
+        <v>306</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" t="s">
+        <v>311</v>
+      </c>
+      <c r="D118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" t="s">
+        <v>314</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>315</v>
+      </c>
+      <c r="B120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" t="s">
+        <v>316</v>
+      </c>
+      <c r="D120" t="s">
+        <v>317</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>318</v>
+      </c>
+      <c r="B121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" t="s">
+        <v>320</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" t="s">
+        <v>323</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" t="s">
+        <v>325</v>
+      </c>
+      <c r="D123" t="s">
+        <v>326</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" t="s">
+        <v>327</v>
+      </c>
+      <c r="D124" t="s">
+        <v>328</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>330</v>
+      </c>
+      <c r="D125" t="s">
+        <v>331</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" t="s">
+        <v>333</v>
+      </c>
+      <c r="D126" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>339</v>
+      </c>
+      <c r="B129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" t="s">
+        <v>340</v>
+      </c>
+      <c r="D129" t="s">
+        <v>341</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" t="s">
+        <v>345</v>
+      </c>
+      <c r="D131" t="s">
+        <v>346</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>348</v>
+      </c>
+      <c r="D132" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" t="s">
+        <v>351</v>
+      </c>
+      <c r="D133" t="s">
+        <v>352</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D134" t="s">
+        <v>355</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>356</v>
+      </c>
+      <c r="D135" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>358</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>358</v>
+      </c>
+      <c r="D136" t="s">
+        <v>359</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>360</v>
+      </c>
+      <c r="D137" t="s">
+        <v>361</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>362</v>
+      </c>
+      <c r="B138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" t="s">
+        <v>363</v>
+      </c>
+      <c r="D138" t="s">
+        <v>364</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>365</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" t="s">
+        <v>369</v>
+      </c>
+      <c r="D140" t="s">
+        <v>370</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" t="s">
+        <v>371</v>
+      </c>
+      <c r="D141" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B142" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" t="s">
+        <v>375</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>376</v>
+      </c>
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" t="s">
+        <v>378</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>379</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" t="s">
+        <v>380</v>
+      </c>
+      <c r="D144" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" t="s">
+        <v>383</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" t="s">
+        <v>384</v>
+      </c>
+      <c r="D146" t="s">
+        <v>385</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>386</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" t="s">
+        <v>386</v>
+      </c>
+      <c r="D147" t="s">
+        <v>387</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" t="s">
+        <v>389</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>390</v>
+      </c>
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" t="s">
+        <v>391</v>
+      </c>
+      <c r="D149" t="s">
+        <v>392</v>
+      </c>
+      <c r="E149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>393</v>
+      </c>
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" t="s">
+        <v>394</v>
+      </c>
+      <c r="D150" t="s">
+        <v>395</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" t="s">
+        <v>396</v>
+      </c>
+      <c r="D151" t="s">
+        <v>397</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152" t="s">
+        <v>398</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>399</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" t="s">
+        <v>400</v>
+      </c>
+      <c r="D153" t="s">
+        <v>401</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>402</v>
+      </c>
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" t="s">
+        <v>403</v>
+      </c>
+      <c r="D154" t="s">
+        <v>404</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>405</v>
+      </c>
+      <c r="D155" t="s">
+        <v>406</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" t="s">
+        <v>407</v>
+      </c>
+      <c r="D156" t="s">
+        <v>408</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>409</v>
+      </c>
+      <c r="D157" t="s">
+        <v>410</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" t="s">
+        <v>411</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" t="s">
+        <v>412</v>
+      </c>
+      <c r="D159" t="s">
+        <v>413</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>414</v>
+      </c>
+      <c r="B160" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" t="s">
+        <v>415</v>
+      </c>
+      <c r="D160" t="s">
+        <v>416</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" t="s">
+        <v>418</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>419</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" t="s">
+        <v>419</v>
+      </c>
+      <c r="D162" t="s">
+        <v>420</v>
+      </c>
+      <c r="E162">
         <v>10</v>
       </c>
     </row>
